--- a/tietokanta/feats_general.xlsx
+++ b/tietokanta/feats_general.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D4F6D8-2E93-4C33-9026-D5D773467141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="17880" yWindow="195" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,286 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>requirement</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Adopted Ancesty</t>
+  </si>
+  <si>
+    <t>Armory Proficiency</t>
+  </si>
+  <si>
+    <t>Breath Control</t>
+  </si>
+  <si>
+    <t>Canny Acumen</t>
+  </si>
+  <si>
+    <t>Diehard</t>
+  </si>
+  <si>
+    <t>Fast Recovery</t>
+  </si>
+  <si>
+    <t>con|5</t>
+  </si>
+  <si>
+    <t>Feather Step</t>
+  </si>
+  <si>
+    <t>Fleet</t>
+  </si>
+  <si>
+    <t>Incredible Initiative</t>
+  </si>
+  <si>
+    <t>Ride</t>
+  </si>
+  <si>
+    <t>Shield Block</t>
+  </si>
+  <si>
+    <t>Toughness</t>
+  </si>
+  <si>
+    <t>Weapon Proficiency</t>
+  </si>
+  <si>
+    <t>Ancestral Paragon</t>
+  </si>
+  <si>
+    <t>Untrained Improvisation</t>
+  </si>
+  <si>
+    <t>Expeditious Search</t>
+  </si>
+  <si>
+    <t>Incredible Investiture</t>
+  </si>
+  <si>
+    <t>dex|4</t>
+  </si>
+  <si>
+    <t>Master Perception</t>
+  </si>
+  <si>
+    <t>cha|16</t>
+  </si>
+  <si>
+    <t>Assurance</t>
+  </si>
+  <si>
+    <t>Dubious Knowledge</t>
+  </si>
+  <si>
+    <t>Quick Identification</t>
+  </si>
+  <si>
+    <t>Recognize Spell</t>
+  </si>
+  <si>
+    <t>Skill Training</t>
+  </si>
+  <si>
+    <t>Trick Magic Item</t>
+  </si>
+  <si>
+    <t>Automatic Knowledge</t>
+  </si>
+  <si>
+    <t>Magical Shorthand</t>
+  </si>
+  <si>
+    <t>Quick Recognition</t>
+  </si>
+  <si>
+    <t>Cat Fall</t>
+  </si>
+  <si>
+    <t>Quick Squeeze</t>
+  </si>
+  <si>
+    <t>Steady Balance</t>
+  </si>
+  <si>
+    <t>Nimble Crawl</t>
+  </si>
+  <si>
+    <t>Kin Up</t>
+  </si>
+  <si>
+    <t>Arcane Sense</t>
+  </si>
+  <si>
+    <t>Unified Theory</t>
+  </si>
+  <si>
+    <t>Combat Climber</t>
+  </si>
+  <si>
+    <t>Hefty Hauler</t>
+  </si>
+  <si>
+    <t>Quick Jump</t>
+  </si>
+  <si>
+    <t>Titan Wrestler</t>
+  </si>
+  <si>
+    <t>Underwater Marauder</t>
+  </si>
+  <si>
+    <t>Powerful Leap</t>
+  </si>
+  <si>
+    <t>Rapid Mantel</t>
+  </si>
+  <si>
+    <t>Quick Climb</t>
+  </si>
+  <si>
+    <t>Quick Swim</t>
+  </si>
+  <si>
+    <t>Wall Jump</t>
+  </si>
+  <si>
+    <t>Cloud Jump</t>
+  </si>
+  <si>
+    <t>Alchemical Crafting</t>
+  </si>
+  <si>
+    <t>Quick Repair</t>
+  </si>
+  <si>
+    <t>Snare Crafting</t>
+  </si>
+  <si>
+    <t>Specialty Crafting</t>
+  </si>
+  <si>
+    <t>Magical Crafting</t>
+  </si>
+  <si>
+    <t>Inventor</t>
+  </si>
+  <si>
+    <t>Craft Anything</t>
+  </si>
+  <si>
+    <t>Charming Liar</t>
+  </si>
+  <si>
+    <t>Lengthy Diversion</t>
+  </si>
+  <si>
+    <t>Lie to Me</t>
+  </si>
+  <si>
+    <t>Confabulator</t>
+  </si>
+  <si>
+    <t>Quick Disguise</t>
+  </si>
+  <si>
+    <t>Slippery Secrets</t>
+  </si>
+  <si>
+    <t>Bargain Hunter</t>
+  </si>
+  <si>
+    <t>Group Impression</t>
+  </si>
+  <si>
+    <t>Hobnobber</t>
+  </si>
+  <si>
+    <t>Glad-Hand</t>
+  </si>
+  <si>
+    <t>Shameless Request</t>
+  </si>
+  <si>
+    <t>Legendary Negotiation</t>
+  </si>
+  <si>
+    <t>Group Coercion</t>
+  </si>
+  <si>
+    <t>Intimidating Glare</t>
+  </si>
+  <si>
+    <t>Quick Coercion</t>
+  </si>
+  <si>
+    <t>Intimidating Prowess</t>
+  </si>
+  <si>
+    <t>Lasting Coercion</t>
+  </si>
+  <si>
+    <t>Battle Cry</t>
+  </si>
+  <si>
+    <t>Terrified Retreat</t>
+  </si>
+  <si>
+    <t>Scare to Death</t>
+  </si>
+  <si>
+    <t>Experienced Professional</t>
+  </si>
+  <si>
+    <t>Additional Lore</t>
+  </si>
+  <si>
+    <t>Unmistakable Lore</t>
+  </si>
+  <si>
+    <t>Legendary Professional</t>
+  </si>
+  <si>
+    <t>Battle Medicine</t>
+  </si>
+  <si>
+    <t>Continual Recovery</t>
+  </si>
+  <si>
+    <t>Robust Recovery</t>
+  </si>
+  <si>
+    <t>Ward Medic</t>
+  </si>
+  <si>
+    <t>Legendary Medic</t>
+  </si>
+  <si>
+    <t>Expert|Medicine</t>
+  </si>
+  <si>
+    <t>Legendary|Medicine</t>
+  </si>
+  <si>
+    <t>Trained|Medicine</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +614,703 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="11" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tietokanta/feats_general.xlsx
+++ b/tietokanta/feats_general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D4F6D8-2E93-4C33-9026-D5D773467141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C51D83-1D66-4685-A3F5-76CDD84734FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="195" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14910" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="147">
   <si>
     <t>name</t>
   </si>
@@ -93,9 +93,6 @@
     <t>dex|4</t>
   </si>
   <si>
-    <t>Master Perception</t>
-  </si>
-  <si>
     <t>cha|16</t>
   </si>
   <si>
@@ -298,6 +295,177 @@
   </si>
   <si>
     <t>Benefits</t>
+  </si>
+  <si>
+    <t>Natural Medicine</t>
+  </si>
+  <si>
+    <t>Train Animal</t>
+  </si>
+  <si>
+    <t>Bonded Animal</t>
+  </si>
+  <si>
+    <t>Oddity Identification</t>
+  </si>
+  <si>
+    <t>Bizarre Magic</t>
+  </si>
+  <si>
+    <t>Fascinating Performance</t>
+  </si>
+  <si>
+    <t>Impressive Performance</t>
+  </si>
+  <si>
+    <t>Virtuosic Performance</t>
+  </si>
+  <si>
+    <t>Legendary Peformance</t>
+  </si>
+  <si>
+    <t>Student of the Canon</t>
+  </si>
+  <si>
+    <t>Divine Guidance</t>
+  </si>
+  <si>
+    <t>Courtly Graces</t>
+  </si>
+  <si>
+    <t>Multilingual</t>
+  </si>
+  <si>
+    <t>Read Lips</t>
+  </si>
+  <si>
+    <t>Sign Language</t>
+  </si>
+  <si>
+    <t>Streetwise</t>
+  </si>
+  <si>
+    <t>Connections</t>
+  </si>
+  <si>
+    <t>Legendary Codebreaker</t>
+  </si>
+  <si>
+    <t>Legendary Linguist</t>
+  </si>
+  <si>
+    <t>Experienced Smuggler</t>
+  </si>
+  <si>
+    <t>Terrain Stalker</t>
+  </si>
+  <si>
+    <t>Quiet Allies</t>
+  </si>
+  <si>
+    <t>Foil Senses</t>
+  </si>
+  <si>
+    <t>Swift Sneak</t>
+  </si>
+  <si>
+    <t>Legendary Sneak</t>
+  </si>
+  <si>
+    <t>Experienced Tracker</t>
+  </si>
+  <si>
+    <t>Forager</t>
+  </si>
+  <si>
+    <t>Survey Wildlife</t>
+  </si>
+  <si>
+    <t>Terrain Expertise</t>
+  </si>
+  <si>
+    <t>Planar Survival</t>
+  </si>
+  <si>
+    <t>Legendary Survivalist</t>
+  </si>
+  <si>
+    <t>Pickpocket</t>
+  </si>
+  <si>
+    <t>Subtle Theft</t>
+  </si>
+  <si>
+    <t>Wary Disarmament</t>
+  </si>
+  <si>
+    <t>Quick Unlock</t>
+  </si>
+  <si>
+    <t>Legendary Thief</t>
+  </si>
+  <si>
+    <t>Perception||Master</t>
+  </si>
+  <si>
+    <t>Skill||Trained</t>
+  </si>
+  <si>
+    <t>| splitter for stats</t>
+  </si>
+  <si>
+    <t>|| splitter for skills</t>
+  </si>
+  <si>
+    <t>|||splitter AND</t>
+  </si>
+  <si>
+    <t>|||| splitter OR</t>
+  </si>
+  <si>
+    <t>Arcana||Trained||||Nature||Trained||||Occultism||Trained||||Religion||Trained</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>Identify Magic in 1 minute or less</t>
+  </si>
+  <si>
+    <t>int|12</t>
+  </si>
+  <si>
+    <t>Arcana||Expert||||Nature||Expert||||Occultism||Expert||||Religion||Expert</t>
+  </si>
+  <si>
+    <t>Identify a spell as a reaction as it's being cast</t>
+  </si>
+  <si>
+    <t>||||| Feat</t>
+  </si>
+  <si>
+    <t>Arcana||Master||||Nature||Master||||Occultism||Master||||Religion||Master|||||Recognize Spell</t>
+  </si>
+  <si>
+    <t>Recall Knowledge||Expert|||Assurance||Skill</t>
+  </si>
+  <si>
+    <t>Recall Knowledge||Trained</t>
+  </si>
+  <si>
+    <t>Acrobatics||Trained</t>
+  </si>
+  <si>
+    <t>Acrobatics||Expert</t>
+  </si>
+  <si>
+    <t>Acrobatics||Master</t>
+  </si>
+  <si>
+    <t>Arcana||Legendary</t>
+  </si>
+  <si>
+    <t>Arcana||Master</t>
   </si>
 </sst>
 </file>
@@ -333,8 +501,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -615,67 +786,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="11" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -683,29 +871,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -713,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -721,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -729,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -737,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -745,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -753,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -761,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -769,231 +957,288 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>31</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>32</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>36</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
       </c>
       <c r="B34">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>38</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>39</v>
       </c>
       <c r="B37">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>46</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>47</v>
       </c>
       <c r="B46">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -1001,7 +1246,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>15</v>
@@ -1009,7 +1254,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1017,7 +1262,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1025,7 +1270,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1033,7 +1278,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -1041,7 +1286,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -1049,7 +1294,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -1057,7 +1302,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>15</v>
@@ -1065,7 +1310,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1073,7 +1318,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1081,7 +1326,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1089,7 +1334,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -1097,7 +1342,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -1105,7 +1350,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>7</v>
@@ -1113,7 +1358,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1121,7 +1366,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1129,7 +1374,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1137,7 +1382,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -1145,7 +1390,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -1153,7 +1398,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>15</v>
@@ -1161,7 +1406,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1169,7 +1414,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1177,7 +1422,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1185,7 +1430,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -1193,7 +1438,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -1201,7 +1446,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>7</v>
@@ -1209,7 +1454,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>7</v>
@@ -1217,7 +1462,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80">
         <v>15</v>
@@ -1225,7 +1470,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1233,7 +1478,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1241,7 +1486,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -1249,7 +1494,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85">
         <v>15</v>
@@ -1257,60 +1502,349 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" t="s">
-        <v>89</v>
+      <c r="C87" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="C88" t="s">
-        <v>87</v>
+      <c r="C88" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
-      <c r="C89" t="s">
-        <v>87</v>
+      <c r="C89" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
-      <c r="C90" t="s">
-        <v>87</v>
+      <c r="C90" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91">
         <v>15</v>
       </c>
-      <c r="C91" t="s">
-        <v>88</v>
+      <c r="C91" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>110</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>111</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>112</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>114</v>
+      </c>
+      <c r="B122">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>115</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>116</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>120</v>
+      </c>
+      <c r="B129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tietokanta/feats_general.xlsx
+++ b/tietokanta/feats_general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C51D83-1D66-4685-A3F5-76CDD84734FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD9652B-0BAD-4937-8657-DCBB4C62F42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14910" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="195">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>requirement</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -285,15 +282,6 @@
     <t>Legendary Medic</t>
   </si>
   <si>
-    <t>Expert|Medicine</t>
-  </si>
-  <si>
-    <t>Legendary|Medicine</t>
-  </si>
-  <si>
-    <t>Trained|Medicine</t>
-  </si>
-  <si>
     <t>Benefits</t>
   </si>
   <si>
@@ -466,6 +454,162 @@
   </si>
   <si>
     <t>Arcana||Master</t>
+  </si>
+  <si>
+    <t>Athletics||Trained</t>
+  </si>
+  <si>
+    <t>Athletics||Expert</t>
+  </si>
+  <si>
+    <t>Athletics||Master</t>
+  </si>
+  <si>
+    <t>Athletics||Legendary</t>
+  </si>
+  <si>
+    <t>Crafting||Trained</t>
+  </si>
+  <si>
+    <t>Impeccable Crafting</t>
+  </si>
+  <si>
+    <t>Crafting||Expert</t>
+  </si>
+  <si>
+    <t>Crafting||Master|||||Specialty Crafting</t>
+  </si>
+  <si>
+    <t>Crafting||Master</t>
+  </si>
+  <si>
+    <t>Crafting||Legendary</t>
+  </si>
+  <si>
+    <t>Deception||Trained</t>
+  </si>
+  <si>
+    <t>Deception||Expert</t>
+  </si>
+  <si>
+    <t>Deception||Master</t>
+  </si>
+  <si>
+    <t>Diplomacy||Trained</t>
+  </si>
+  <si>
+    <t>Diplomacy||Expert</t>
+  </si>
+  <si>
+    <t>Diplomacy||Master</t>
+  </si>
+  <si>
+    <t>Diplomacy||Legendary</t>
+  </si>
+  <si>
+    <t>Intimidation||Trained</t>
+  </si>
+  <si>
+    <t>str|16|||Intimidation||Expert</t>
+  </si>
+  <si>
+    <t>Intimidation||Expert</t>
+  </si>
+  <si>
+    <t>Intimidation||Master</t>
+  </si>
+  <si>
+    <t>Intimidation||Legendary</t>
+  </si>
+  <si>
+    <t>Lore||Trained</t>
+  </si>
+  <si>
+    <t>Lore||Expert</t>
+  </si>
+  <si>
+    <t>Lore||Legendary</t>
+  </si>
+  <si>
+    <t>Nature||Trained</t>
+  </si>
+  <si>
+    <t>Nature||Expert</t>
+  </si>
+  <si>
+    <t>Medicine||Trained</t>
+  </si>
+  <si>
+    <t>Medicine||Expert</t>
+  </si>
+  <si>
+    <t>Medicine||Legendary</t>
+  </si>
+  <si>
+    <t>Occultism||Trained</t>
+  </si>
+  <si>
+    <t>Occultism||Master</t>
+  </si>
+  <si>
+    <t>Performance||Trained</t>
+  </si>
+  <si>
+    <t>Performance||Legendary|||||Virtuosic Performance</t>
+  </si>
+  <si>
+    <t>Religion||Trained</t>
+  </si>
+  <si>
+    <t>Religion||Legendary</t>
+  </si>
+  <si>
+    <t>Society||Trained</t>
+  </si>
+  <si>
+    <t>Stealth||Trained</t>
+  </si>
+  <si>
+    <t>Survival||Trained</t>
+  </si>
+  <si>
+    <t>Thievery||Trained</t>
+  </si>
+  <si>
+    <t>Society||Expert|||||Courtly Graces</t>
+  </si>
+  <si>
+    <t>Society||Legendary</t>
+  </si>
+  <si>
+    <t>Society||Legendary|||||Multilingual</t>
+  </si>
+  <si>
+    <t>Stealth||Expert</t>
+  </si>
+  <si>
+    <t>Stealth||Master</t>
+  </si>
+  <si>
+    <t>Stealth||Legendary|||||Swift Sneak</t>
+  </si>
+  <si>
+    <t>Survival||Master</t>
+  </si>
+  <si>
+    <t>Survival||Legendary</t>
+  </si>
+  <si>
+    <t>Thievery||Expert</t>
+  </si>
+  <si>
+    <t>Thievery||Master</t>
+  </si>
+  <si>
+    <t>Thievery||Legendary|||||Pickpocket</t>
+  </si>
+  <si>
+    <t>prerequisite</t>
   </si>
 </sst>
 </file>
@@ -786,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,65 +951,65 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -873,29 +1017,29 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -903,7 +1047,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -911,7 +1055,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -919,7 +1063,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -927,7 +1071,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -935,7 +1079,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -943,7 +1087,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -951,7 +1095,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -959,521 +1103,638 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
+      <c r="C44" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
+      <c r="C45" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>7</v>
       </c>
+      <c r="C46" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
+      <c r="C47" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>59</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>61</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C71" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>67</v>
       </c>
-      <c r="B70">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B72">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>68</v>
       </c>
-      <c r="B71">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>69</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>70</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>71</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>73</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B79">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
+      <c r="C81" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,364 +1744,492 @@
       <c r="B83">
         <v>1</v>
       </c>
+      <c r="C83" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>88</v>
+      <c r="C86" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92">
         <v>15</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>90</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
+      <c r="C92" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B94">
         <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>92</v>
       </c>
-      <c r="B95">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104">
+        <v>15</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107">
+        <v>15</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>95</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>97</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>98</v>
-      </c>
-      <c r="B103">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>100</v>
-      </c>
-      <c r="B106">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>101</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>102</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C114" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>103</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>104</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>105</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>106</v>
-      </c>
-      <c r="B113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>107</v>
-      </c>
-      <c r="B114">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>108</v>
       </c>
       <c r="B115">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>109</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>104</v>
+      </c>
+      <c r="B116">
+        <v>15</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>112</v>
-      </c>
-      <c r="B120">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>110</v>
+      </c>
+      <c r="B123">
+        <v>15</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>112</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>113</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>114</v>
       </c>
-      <c r="B122">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130">
         <v>15</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>115</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>116</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C130" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>117</v>
       </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>118</v>
       </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>119</v>
       </c>
-      <c r="B128">
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>120</v>
+      </c>
+      <c r="B135">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>120</v>
-      </c>
-      <c r="B129">
+      <c r="C135" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>121</v>
+      </c>
+      <c r="B136">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>121</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>122</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>123</v>
-      </c>
-      <c r="B133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>124</v>
-      </c>
-      <c r="B134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>125</v>
-      </c>
-      <c r="B135">
-        <v>15</v>
+      <c r="C136" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
